--- a/report_template.xlsx
+++ b/report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikerose\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F01C0-1688-4DFC-A886-CEA0E9CC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95DA8E-EA23-4E27-8C0C-82AD4C0762AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Services Assessment</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Configurations Assessment</t>
+  </si>
+  <si>
+    <t>Starting Version</t>
+  </si>
+  <si>
+    <t>Ending Version</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -147,6 +153,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,7 +287,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -326,7 +335,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
@@ -364,7 +373,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1"/>
@@ -380,7 +389,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1"/>
@@ -394,7 +403,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1"/>
@@ -408,7 +417,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1"/>
@@ -422,7 +431,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
@@ -436,7 +445,9 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -448,7 +459,9 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
